--- a/podatki/osebni_podatki2018_2019.xlsx
+++ b/podatki/osebni_podatki2018_2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10618" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10618" uniqueCount="1842">
   <si>
     <t>Aaron Gordon</t>
   </si>
@@ -5547,6 +5547,9 @@
   </si>
   <si>
     <t>TS%</t>
+  </si>
+  <si>
+    <t>AST%</t>
   </si>
 </sst>
 </file>
@@ -5869,7 +5872,7 @@
   <dimension ref="A1:T531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5936,7 +5939,7 @@
         <v>1840</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1835</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
